--- a/cp/sample.xlsx
+++ b/cp/sample.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">E-mail: info@chemlab.by</t>
   </si>
   <si>
-    <t xml:space="preserve">Коммерческое предложение направлено в  </t>
+    <t xml:space="preserve">Коммерческое предложение направлено в </t>
   </si>
   <si>
     <t xml:space="preserve">Дата документа</t>
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -151,6 +151,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -200,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,6 +226,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -226,7 +238,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -237,7 +257,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -245,10 +265,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,10 +275,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -288,9 +300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>889560</xdr:colOff>
+      <xdr:colOff>888480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -304,7 +316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4996800" y="200160"/>
-          <a:ext cx="2670120" cy="889200"/>
+          <a:ext cx="2669040" cy="888120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -324,10 +336,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I33"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -371,30 +383,42 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="3"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -403,7 +427,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -412,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -421,141 +445,141 @@
         <v>12</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F2:H5"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:I9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>

--- a/cp/sample.xlsx
+++ b/cp/sample.xlsx
@@ -104,7 +104,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -151,14 +151,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -241,8 +233,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -300,9 +292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>888480</xdr:colOff>
+      <xdr:colOff>888120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,7 +308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4996800" y="200160"/>
-          <a:ext cx="2669040" cy="888120"/>
+          <a:ext cx="2668680" cy="887760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -395,7 +387,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
